--- a/ecosysem/db/Excels/DeltaG.xlsx
+++ b/ecosysem/db/Excels/DeltaG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3857F50-E5AB-40A9-9837-91E3CB165E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1360F98-D89E-4801-A968-F2B10AC5234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -38,10 +38,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={3A21AB5B-B51F-4DF7-9404-4533A8861125}</author>
     <author>tc={F041814C-ECC2-4AB2-BE74-11F857A9EFE3}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3A21AB5B-B51F-4DF7-9404-4533A8861125}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'aq' as 'L'</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>IUPAC</t>
   </si>
@@ -107,15 +116,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Thauer1997</t>
   </si>
   <si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>Alberty2004</t>
+  </si>
+  <si>
+    <t>Hydroxide</t>
+  </si>
+  <si>
+    <t>OH-</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -304,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,6 +671,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-08-15T17:31:43.29" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{3A21AB5B-B51F-4DF7-9404-4533A8861125}">
+    <text>'aq' as 'L'</text>
+  </threadedComment>
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
@@ -664,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +696,7 @@
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -703,16 +721,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3">
         <v>-137.15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -720,16 +738,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <v>-119</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -737,16 +755,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3">
         <v>-394.35899999999998</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -754,16 +772,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3">
         <v>-386.02</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -771,16 +789,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -788,16 +806,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3">
         <v>16.399999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -805,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3">
         <v>-237.18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -822,16 +840,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3">
         <v>-50.75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -839,18 +857,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3">
         <v>-50.79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -858,18 +874,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -877,461 +891,489 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>104.8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
         <v>104.18</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3">
         <v>104.2</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>-16.399999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3">
         <v>-26.57</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3">
         <v>-79.37</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>86.6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
         <v>86.5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3">
         <v>-33.56</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3">
         <v>-27.87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3">
         <v>12.05</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3">
         <v>85.6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3">
         <v>-537.89499999999998</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3">
         <v>-527.80999999999995</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3">
         <v>-486.6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3">
         <v>-690</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3">
         <v>-756.01</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3">
         <v>-744.67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3">
         <v>-389</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3">
         <v>-369.41</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3">
         <v>-623.16</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3">
         <v>-586.85</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3">
         <v>-527.9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3">
         <v>-50.6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3">
         <v>-32.200000000000003</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D37" s="3">
         <v>-111.25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3">
         <v>-108.74</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-157.29300000000001</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>68</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ecosysem/db/Excels/DeltaG.xlsx
+++ b/ecosysem/db/Excels/DeltaG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1360F98-D89E-4801-A968-F2B10AC5234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320F1D-EC8E-4959-B8F4-796B4FCADFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>IUPAC</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1382,40 @@
         <v>23</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-300.19400000000002</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-300.70800000000003</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
